--- a/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3403,4 +3404,1238 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5056</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1026</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>31.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010765</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010766</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保华丰混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>31.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4638,4 +4639,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1918</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>910021</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011313</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红启华三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5265,4 +5266,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5274,7 +5275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5285,17 +5286,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5305,14 +5326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.88</v>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7268</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5321,14 +5364,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.4</v>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5337,14 +5402,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.5</v>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5353,13 +5440,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1585</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010896</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>太平价值增长股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001932</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保灵活优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010897</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>太平价值增长股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>36</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5977,7 +5978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5988,17 +5989,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6008,14 +6029,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.15</v>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6637</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6024,14 +6067,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.88</v>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6040,14 +6105,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.4</v>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6056,14 +6143,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.5</v>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -6072,13 +6181,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>36</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6490,7 +6491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6501,17 +6502,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6521,14 +6542,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.8</v>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6770</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6537,14 +6580,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.15</v>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5881</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6553,14 +6618,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.88</v>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2543</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -6569,14 +6656,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.4</v>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -6585,14 +6694,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>39</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.5</v>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -6601,13 +6732,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>39</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>36</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>2.05</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>5.4</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>39</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>36</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.14</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+          <t>华夏新兴经济一年持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.09</t>
+          <t>17.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>87.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6770</t>
+          <t>0.4768</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159996</t>
+          <t>007207</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证全指家用电器ETF</t>
+          <t>华夏常阳三年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.79</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>72.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5881</t>
+          <t>0.2613</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.78</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>99.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2543</t>
+          <t>0.1933</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2371</t>
+          <t>0.1897</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -818,22 +835,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1043</t>
+          <t>0.0915</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004818</t>
+          <t>004760</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
+          <t>国寿安保稳瑞混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>44.71</t>
+          <t>28.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0698</t>
+          <t>0.0412</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004760</t>
+          <t>012720</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国寿安保稳瑞混合A</t>
+          <t>华夏新兴经济一年持有混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26.56</t>
+          <t>87.21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0422</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012720</t>
+          <t>561120</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+          <t>富国中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>99.27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0363</t>
+          <t>0.0264</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>620002</t>
+          <t>004761</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金元顺安成长动力混合</t>
+          <t>国寿安保稳瑞混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.89</t>
+          <t>28.59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004761</t>
+          <t>014598</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保稳瑞混合C</t>
+          <t>永赢合享混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26.56</t>
+          <t>36.25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1036,32 +1053,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004819</t>
+          <t>012422</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
+          <t>华夏优加生活混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>44.71</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012422</t>
+          <t>014599</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏优加生活混合C</t>
+          <t>永赢合享混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>36.25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1178,26 +1195,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.62</t>
+          <t>21.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6637</t>
+          <t>0.6770</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1216,26 +1233,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.91</t>
+          <t>30.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.66</t>
+          <t>99.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3385</t>
+          <t>0.5881</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1244,36 +1261,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012421</t>
+          <t>560880</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏优加生活混合A</t>
+          <t>广发中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>12.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>99.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2393</t>
+          <t>0.2543</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1282,32 +1299,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005063</t>
+          <t>012421</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数A</t>
+          <t>华夏优加生活混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>91.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1982</t>
+          <t>0.2371</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1330,26 +1347,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.19</t>
+          <t>89.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1106</t>
+          <t>0.1043</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1358,36 +1375,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005064</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数C</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>44.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1080</t>
+          <t>0.0698</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1406,26 +1423,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21.27</t>
+          <t>26.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.0422</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1444,26 +1461,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0363</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1472,32 +1489,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010205</t>
+          <t>620002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国寿安保裕安混合A</t>
+          <t>金元顺安成长动力混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29.13</t>
+          <t>78.89</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1520,26 +1537,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21.27</t>
+          <t>26.56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0179</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1548,32 +1565,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012422</t>
+          <t>004819</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏优加生活混合C</t>
+          <t>国寿安保目标策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>44.71</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1586,36 +1603,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010206</t>
+          <t>012422</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国寿安保裕安混合C</t>
+          <t>华夏优加生活混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>29.13</t>
+          <t>91.45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1624,6 +1641,518 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6637</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2325,7 +2854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2951,7 +3480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4185,7 +4714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5723,7 +6252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
+++ b/数据整理/stocks/A股/上证主板/603195-公牛集团.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.32</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.05</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>2.88</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>5.4</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D8" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1452 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>39</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>36</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0268</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9075</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8339</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7636</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5962</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5962</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安主题精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3080</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002424</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安积极配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004558</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002167</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方顺康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004559</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +2061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +2112,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012719</t>
+          <t>001511</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏新兴经济一年持有混合A</t>
+          <t>兴全新视野灵活配置定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.53</t>
+          <t>111.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.21</t>
+          <t>90.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4768</t>
+          <t>2.6856</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +2150,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007207</t>
+          <t>163415</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏常阳三年定期开放混合</t>
+          <t>兴全商业模式优选混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>108.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>72.15</t>
+          <t>93.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2613</t>
+          <t>2.6120</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -749,32 +2188,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>560880</t>
+          <t>159996</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器ETF</t>
+          <t>国泰中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>18.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.30</t>
+          <t>98.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1933</t>
+          <t>0.3961</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -787,36 +2226,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012421</t>
+          <t>560880</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华夏优加生活混合A</t>
+          <t>广发中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>99.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1897</t>
+          <t>0.1747</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +2264,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003131</t>
+          <t>481013</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国寿安保强国智造灵活配置混合</t>
+          <t>工银消费服务混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>77.99</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0915</t>
+          <t>0.0853</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -873,26 +2312,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>28.59</t>
+          <t>34.09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0412</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +2340,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012720</t>
+          <t>561120</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏新兴经济一年持有混合C</t>
+          <t>富国中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.21</t>
+          <t>99.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0267</t>
+          <t>0.0266</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +2378,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>561120</t>
+          <t>003131</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国中证全指家用电器ETF</t>
+          <t>国寿安保强国智造灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>99.27</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0264</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +2416,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004761</t>
+          <t>014598</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国寿安保稳瑞混合C</t>
+          <t>永赢合享混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>28.59</t>
+          <t>31.53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0042</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +2454,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>014598</t>
+          <t>004761</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>永赢合享混合A</t>
+          <t>国寿安保稳瑞混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>36.25</t>
+          <t>34.09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +2492,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012422</t>
+          <t>011475</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏优加生活混合C</t>
+          <t>工银消费服务混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.53</t>
+          <t>77.99</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1101,26 +2540,98 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>36.25</t>
+          <t>31.53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004840</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006442</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东兴品牌精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1190,31 +2701,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+          <t>华夏新兴经济一年持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.09</t>
+          <t>17.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>87.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6770</t>
+          <t>0.4768</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1223,36 +2734,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159996</t>
+          <t>007207</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证全指家用电器ETF</t>
+          <t>华夏常阳三年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.79</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>72.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5881</t>
+          <t>0.2613</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1271,26 +2782,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.78</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.19</t>
+          <t>99.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2543</t>
+          <t>0.1933</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1309,26 +2820,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2371</t>
+          <t>0.1897</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1347,22 +2858,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>92.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1043</t>
+          <t>0.0915</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1375,36 +2886,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004818</t>
+          <t>004760</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
+          <t>国寿安保稳瑞混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>44.71</t>
+          <t>28.59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0698</t>
+          <t>0.0412</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1413,36 +2924,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004760</t>
+          <t>012720</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国寿安保稳瑞混合A</t>
+          <t>华夏新兴经济一年持有混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>26.56</t>
+          <t>87.21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0422</t>
+          <t>0.0267</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1451,36 +2962,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012720</t>
+          <t>561120</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+          <t>富国中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>99.27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0363</t>
+          <t>0.0264</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1489,36 +3000,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>620002</t>
+          <t>004761</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>金元顺安成长动力混合</t>
+          <t>国寿安保稳瑞混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>78.89</t>
+          <t>28.59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0177</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1527,36 +3038,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004761</t>
+          <t>014598</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保稳瑞混合C</t>
+          <t>永赢合享混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26.56</t>
+          <t>36.25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1565,32 +3076,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004819</t>
+          <t>012422</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
+          <t>华夏优加生活混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>44.71</t>
+          <t>90.53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0036</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1603,36 +3114,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>012422</t>
+          <t>014599</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏优加生活混合C</t>
+          <t>永赢合享混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>36.25</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1707,26 +3218,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.62</t>
+          <t>21.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6637</t>
+          <t>0.6770</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1745,26 +3256,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.91</t>
+          <t>30.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.66</t>
+          <t>99.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3385</t>
+          <t>0.5881</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1773,36 +3284,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012421</t>
+          <t>560880</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏优加生活混合A</t>
+          <t>广发中证全指家用电器ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>12.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>99.19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2393</t>
+          <t>0.2543</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1811,32 +3322,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005063</t>
+          <t>012421</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数A</t>
+          <t>华夏优加生活混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.91</t>
+          <t>9.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>91.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1982</t>
+          <t>0.2371</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1859,26 +3370,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.19</t>
+          <t>89.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1106</t>
+          <t>0.1043</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1887,36 +3398,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005064</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证全指家用电器指数C</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>44.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1080</t>
+          <t>0.0698</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1935,26 +3446,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>21.27</t>
+          <t>26.56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0582</t>
+          <t>0.0422</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1973,26 +3484,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.19</t>
+          <t>92.20</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0319</t>
+          <t>0.0363</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -2001,32 +3512,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010205</t>
+          <t>620002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国寿安保裕安混合A</t>
+          <t>金元顺安成长动力混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29.13</t>
+          <t>78.89</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.0177</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2049,26 +3560,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>21.27</t>
+          <t>26.56</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0179</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2077,32 +3588,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012422</t>
+          <t>004819</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏优加生活混合C</t>
+          <t>国寿安保目标策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>44.71</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2115,36 +3626,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010206</t>
+          <t>012422</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国寿安保裕安混合C</t>
+          <t>华夏优加生活混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>29.13</t>
+          <t>91.45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2153,6 +3664,518 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6637</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003131</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保强国智造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004761</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保稳瑞混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010206</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保裕安混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2854,7 +4877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3480,7 +5503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4714,7 +6737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6250,1426 +8273,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006007</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.62</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0268</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009210</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧嘉和三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9075</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001128</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8339</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005421</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧嘉泽灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7636</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001883</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧新动力混合(LOF) -E</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5962</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>166009</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧新动力混合(LOF) -A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5962</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>320012</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安主题精选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.65</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3080</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159996</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰中证全指家用电器ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.56</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3010</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005063</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2350</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009967</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时荣泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>61.45</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1571</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1541</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003434</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>59.42</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1247</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004236</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中欧新动力混合(LOF) -C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.56</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1230</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009211</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中欧嘉和三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1208</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009619</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时女性消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>78.64</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1201</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519093</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>新华钻石品质企业混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1027</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002295</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1027</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004760</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国寿安保稳瑞混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.84</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>30.53</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0862</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009537</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>太平行业优选股票A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>82.32</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0858</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005064</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>广发中证全指家用电器指数C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0595</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>160519</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>83.06</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0440</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002424</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时文体娱乐主题混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>85.92</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0436</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006008</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>诺安积极配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>85.62</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004761</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>国寿安保稳瑞混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>30.53</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004558</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>汇安丰裕灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0374</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002640</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中信建投睿溢混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0282</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008082</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002167</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>南方顺康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>009538</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>太平行业优选股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>82.32</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008083</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>006843</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>中信建投睿溢混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009620</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>博时女性消费主题混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>78.64</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008604</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>广发稳安灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.34</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>003435</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>59.42</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>004559</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>汇安丰裕灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>